--- a/Migrade_v.1.2/media/excel-files/ELEM SF9 (Learner's Progress Report Card).xlsx
+++ b/Migrade_v.1.2/media/excel-files/ELEM SF9 (Learner's Progress Report Card).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20407"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angelo\Documents\GitHub\ces_migrade\MiGrade\Migrade_v.1.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\GitHub\MiGrade\Migrade_v.1.2\media\excel-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7AC2394-245D-445D-B606-B03F19BEEE7A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823557E2-CB0F-4C54-8664-6080914CE658}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" tabRatio="865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -761,7 +761,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -887,185 +887,310 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1098,146 +1223,25 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1987,8 +1991,8 @@
   <sheetPr codeName="Sheet128"/>
   <dimension ref="A3:Y41"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" view="pageBreakPreview" topLeftCell="B4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AA17" sqref="AA17"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7:M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2011,273 +2015,273 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
       <c r="O3" s="1"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="85"/>
-      <c r="B4" s="77" t="s">
+      <c r="A4" s="56"/>
+      <c r="B4" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="77" t="s">
+      <c r="C4" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="77" t="s">
+      <c r="D4" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="77" t="s">
+      <c r="E4" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="77" t="s">
+      <c r="F4" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="77" t="s">
+      <c r="G4" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="77" t="s">
+      <c r="H4" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="77" t="s">
+      <c r="I4" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="77" t="s">
+      <c r="J4" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="77" t="s">
+      <c r="L4" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="80" t="s">
+      <c r="M4" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="83"/>
-      <c r="O4" s="83"/>
-      <c r="Q4" s="68" t="s">
+      <c r="N4" s="67"/>
+      <c r="O4" s="67"/>
+      <c r="Q4" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68"/>
-      <c r="T4" s="68"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="61"/>
+      <c r="T4" s="61"/>
     </row>
     <row r="5" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="86"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="78"/>
-      <c r="L5" s="78"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="83"/>
-      <c r="Q5" s="68" t="s">
+      <c r="A5" s="57"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="67"/>
+      <c r="Q5" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="R5" s="68"/>
-      <c r="S5" s="68"/>
-      <c r="T5" s="68"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="61"/>
+      <c r="T5" s="61"/>
     </row>
     <row r="6" spans="1:23" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="86"/>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="82"/>
-      <c r="N6" s="83"/>
-      <c r="O6" s="83"/>
-      <c r="Q6" s="75" t="s">
+      <c r="A6" s="57"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="67"/>
+      <c r="O6" s="67"/>
+      <c r="Q6" s="62" t="s">
         <v>123</v>
       </c>
-      <c r="R6" s="75"/>
-      <c r="S6" s="75"/>
-      <c r="T6" s="75"/>
+      <c r="R6" s="62"/>
+      <c r="S6" s="62"/>
+      <c r="T6" s="62"/>
     </row>
     <row r="7" spans="1:23" ht="18" x14ac:dyDescent="0.4">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="73"/>
-      <c r="N7" s="83"/>
-      <c r="O7" s="83"/>
-      <c r="P7" s="67"/>
-      <c r="Q7" s="68" t="s">
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="166"/>
+      <c r="N7" s="67"/>
+      <c r="O7" s="67"/>
+      <c r="P7" s="70"/>
+      <c r="Q7" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="R7" s="68"/>
-      <c r="S7" s="68"/>
-      <c r="T7" s="68"/>
+      <c r="R7" s="61"/>
+      <c r="S7" s="61"/>
+      <c r="T7" s="61"/>
     </row>
     <row r="8" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="76"/>
-      <c r="B8" s="74"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="74"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="74"/>
-      <c r="L8" s="74"/>
-      <c r="M8" s="74"/>
-      <c r="N8" s="83"/>
-      <c r="O8" s="83"/>
-      <c r="P8" s="67"/>
-      <c r="Q8" s="62" t="s">
+      <c r="A8" s="63"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="67"/>
+      <c r="O8" s="67"/>
+      <c r="P8" s="70"/>
+      <c r="Q8" s="71" t="s">
         <v>96</v>
       </c>
-      <c r="R8" s="62"/>
-      <c r="S8" s="62"/>
-      <c r="T8" s="62"/>
+      <c r="R8" s="71"/>
+      <c r="S8" s="71"/>
+      <c r="T8" s="71"/>
     </row>
     <row r="9" spans="1:23" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="65"/>
-      <c r="P9" s="67"/>
-      <c r="Q9" s="62"/>
-      <c r="R9" s="62"/>
-      <c r="S9" s="62"/>
-      <c r="T9" s="62"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="68"/>
+      <c r="P9" s="70"/>
+      <c r="Q9" s="71"/>
+      <c r="R9" s="71"/>
+      <c r="S9" s="71"/>
+      <c r="T9" s="71"/>
     </row>
     <row r="10" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="69"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="66"/>
-      <c r="M10" s="66"/>
+      <c r="A10" s="73"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="69"/>
       <c r="P10" s="5"/>
-      <c r="Q10" s="61" t="s">
+      <c r="Q10" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="R10" s="61"/>
-      <c r="S10" s="61"/>
-      <c r="T10" s="61"/>
+      <c r="R10" s="79"/>
+      <c r="S10" s="79"/>
+      <c r="T10" s="79"/>
     </row>
     <row r="11" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="64"/>
-      <c r="B11" s="66"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="66"/>
-      <c r="M11" s="66"/>
+      <c r="A11" s="74"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="69"/>
       <c r="P11" s="6"/>
-      <c r="Q11" s="62" t="s">
+      <c r="Q11" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="R11" s="62"/>
-      <c r="S11" s="62"/>
-      <c r="T11" s="62"/>
+      <c r="R11" s="71"/>
+      <c r="S11" s="71"/>
+      <c r="T11" s="71"/>
     </row>
     <row r="12" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="63" t="s">
+      <c r="A12" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="59"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="80"/>
+      <c r="M12" s="80"/>
       <c r="P12" s="7"/>
-      <c r="Q12" s="60" t="s">
+      <c r="Q12" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="R12" s="60"/>
-      <c r="S12" s="60"/>
-      <c r="T12" s="60"/>
+      <c r="R12" s="78"/>
+      <c r="S12" s="78"/>
+      <c r="T12" s="78"/>
     </row>
     <row r="13" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="64"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
+      <c r="A13" s="74"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="80"/>
+      <c r="K13" s="80"/>
+      <c r="L13" s="80"/>
+      <c r="M13" s="80"/>
       <c r="P13" s="6"/>
       <c r="W13" s="50"/>
     </row>
@@ -2314,31 +2318,31 @@
       <c r="Q15" s="9"/>
     </row>
     <row r="16" spans="1:23" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="81"/>
+      <c r="K16" s="81"/>
+      <c r="L16" s="81"/>
+      <c r="M16" s="81"/>
     </row>
     <row r="17" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P17" s="56" t="s">
+      <c r="P17" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="56"/>
-      <c r="T17" s="56"/>
-      <c r="U17" s="56"/>
+      <c r="Q17" s="82"/>
+      <c r="R17" s="82"/>
+      <c r="S17" s="82"/>
+      <c r="T17" s="82"/>
+      <c r="U17" s="82"/>
     </row>
     <row r="18" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="10" t="s">
@@ -2491,20 +2495,20 @@
       </c>
     </row>
     <row r="26" spans="1:25" ht="18" x14ac:dyDescent="0.4">
-      <c r="B26" s="53" t="s">
+      <c r="B26" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="53"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="83"/>
+      <c r="G26" s="83"/>
+      <c r="H26" s="83"/>
+      <c r="I26" s="83"/>
+      <c r="J26" s="83"/>
+      <c r="K26" s="83"/>
+      <c r="L26" s="83"/>
+      <c r="M26" s="83"/>
       <c r="P26" s="17" t="s">
         <v>127</v>
       </c>
@@ -2522,18 +2526,18 @@
       </c>
     </row>
     <row r="27" spans="1:25" s="19" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="57"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="57"/>
+      <c r="B27" s="84"/>
+      <c r="C27" s="84"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="84"/>
+      <c r="F27" s="84"/>
+      <c r="G27" s="84"/>
+      <c r="H27" s="84"/>
+      <c r="I27" s="84"/>
+      <c r="J27" s="84"/>
+      <c r="K27" s="84"/>
+      <c r="L27" s="84"/>
+      <c r="M27" s="84"/>
       <c r="P27" s="20"/>
       <c r="Q27" s="21"/>
       <c r="R27" s="21"/>
@@ -2570,7 +2574,7 @@
       </c>
       <c r="Q28" s="18"/>
       <c r="R28" s="18"/>
-      <c r="S28" s="165" t="s">
+      <c r="S28" s="52" t="s">
         <v>129</v>
       </c>
       <c r="T28" s="18"/>
@@ -2702,21 +2706,21 @@
     </row>
     <row r="33" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="25"/>
-      <c r="B33" s="58" t="s">
+      <c r="B33" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58"/>
+      <c r="C33" s="85"/>
+      <c r="D33" s="85"/>
       <c r="E33" s="25"/>
       <c r="F33" s="25"/>
       <c r="G33" s="1"/>
       <c r="H33" s="25"/>
       <c r="I33" s="25"/>
-      <c r="J33" s="58" t="s">
+      <c r="J33" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="K33" s="58"/>
-      <c r="L33" s="58"/>
+      <c r="K33" s="85"/>
+      <c r="L33" s="85"/>
       <c r="M33" s="25"/>
       <c r="N33" s="25"/>
       <c r="O33" s="1"/>
@@ -2730,29 +2734,29 @@
       <c r="U33" s="18"/>
     </row>
     <row r="34" spans="1:21" s="3" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="54" t="s">
+      <c r="A34" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="54"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="54"/>
+      <c r="B34" s="86"/>
+      <c r="C34" s="86"/>
+      <c r="D34" s="86"/>
+      <c r="E34" s="86"/>
+      <c r="F34" s="86"/>
       <c r="G34" s="10"/>
-      <c r="H34" s="54" t="s">
+      <c r="H34" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="I34" s="54"/>
-      <c r="J34" s="54"/>
-      <c r="K34" s="54"/>
-      <c r="L34" s="54"/>
-      <c r="M34" s="54"/>
-      <c r="N34" s="54"/>
+      <c r="I34" s="86"/>
+      <c r="J34" s="86"/>
+      <c r="K34" s="86"/>
+      <c r="L34" s="86"/>
+      <c r="M34" s="86"/>
+      <c r="N34" s="86"/>
       <c r="O34" s="10"/>
-      <c r="P34" s="55" t="s">
+      <c r="P34" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="Q34" s="55"/>
+      <c r="Q34" s="87"/>
       <c r="R34" s="16"/>
       <c r="S34" s="16"/>
       <c r="T34" s="16"/>
@@ -2769,20 +2773,20 @@
       <c r="U35" s="18"/>
     </row>
     <row r="36" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="52"/>
-      <c r="B36" s="52"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="52"/>
-      <c r="J36" s="52"/>
-      <c r="K36" s="52"/>
-      <c r="L36" s="52"/>
-      <c r="M36" s="52"/>
-      <c r="N36" s="52"/>
+      <c r="A36" s="81"/>
+      <c r="B36" s="81"/>
+      <c r="C36" s="81"/>
+      <c r="D36" s="81"/>
+      <c r="E36" s="81"/>
+      <c r="F36" s="81"/>
+      <c r="G36" s="81"/>
+      <c r="H36" s="81"/>
+      <c r="I36" s="81"/>
+      <c r="J36" s="81"/>
+      <c r="K36" s="81"/>
+      <c r="L36" s="81"/>
+      <c r="M36" s="81"/>
+      <c r="N36" s="81"/>
       <c r="P36" s="15" t="s">
         <v>36</v>
       </c>
@@ -2793,22 +2797,22 @@
       <c r="U36" s="18"/>
     </row>
     <row r="37" spans="1:21" s="27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="53" t="s">
+      <c r="A37" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="53"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="53"/>
-      <c r="H37" s="53"/>
-      <c r="I37" s="53"/>
-      <c r="J37" s="53"/>
-      <c r="K37" s="53"/>
-      <c r="L37" s="53"/>
-      <c r="M37" s="53"/>
-      <c r="N37" s="53"/>
+      <c r="B37" s="83"/>
+      <c r="C37" s="83"/>
+      <c r="D37" s="83"/>
+      <c r="E37" s="83"/>
+      <c r="F37" s="83"/>
+      <c r="G37" s="83"/>
+      <c r="H37" s="83"/>
+      <c r="I37" s="83"/>
+      <c r="J37" s="83"/>
+      <c r="K37" s="83"/>
+      <c r="L37" s="83"/>
+      <c r="M37" s="83"/>
+      <c r="N37" s="83"/>
       <c r="P37" s="28" t="s">
         <v>38</v>
       </c>
@@ -2871,16 +2875,16 @@
       <c r="L40" s="23"/>
       <c r="M40" s="23"/>
       <c r="N40" s="23"/>
-      <c r="P40" s="52" t="s">
+      <c r="P40" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="Q40" s="52"/>
-      <c r="R40" s="52"/>
-      <c r="S40" s="52" t="s">
+      <c r="Q40" s="81"/>
+      <c r="R40" s="81"/>
+      <c r="S40" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="T40" s="52"/>
-      <c r="U40" s="52"/>
+      <c r="T40" s="81"/>
+      <c r="U40" s="81"/>
     </row>
     <row r="41" spans="1:21" ht="18" x14ac:dyDescent="0.4">
       <c r="A41" s="26"/>
@@ -2899,31 +2903,72 @@
       <c r="L41" s="30"/>
       <c r="M41" s="30"/>
       <c r="N41" s="30"/>
-      <c r="P41" s="53" t="s">
+      <c r="P41" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="Q41" s="53"/>
-      <c r="R41" s="53"/>
-      <c r="S41" s="53" t="s">
+      <c r="Q41" s="83"/>
+      <c r="R41" s="83"/>
+      <c r="S41" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="T41" s="53"/>
-      <c r="U41" s="53"/>
+      <c r="T41" s="83"/>
+      <c r="U41" s="83"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="79">
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="A3:N3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="S40:U40"/>
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="S41:U41"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="H34:N34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="A36:N36"/>
+    <mergeCell ref="A37:N37"/>
+    <mergeCell ref="P40:R40"/>
+    <mergeCell ref="A16:M16"/>
+    <mergeCell ref="P17:U17"/>
+    <mergeCell ref="B26:M26"/>
+    <mergeCell ref="B27:M27"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="M9:M11"/>
+    <mergeCell ref="P7:P9"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="Q8:T9"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
     <mergeCell ref="Q4:T4"/>
     <mergeCell ref="Q5:T5"/>
     <mergeCell ref="Q6:T6"/>
@@ -2940,58 +2985,17 @@
     <mergeCell ref="M4:M6"/>
     <mergeCell ref="N4:N8"/>
     <mergeCell ref="O4:O8"/>
-    <mergeCell ref="M9:M11"/>
-    <mergeCell ref="P7:P9"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="Q8:T9"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="K9:K11"/>
-    <mergeCell ref="L9:L11"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="A16:M16"/>
-    <mergeCell ref="P17:U17"/>
-    <mergeCell ref="B26:M26"/>
-    <mergeCell ref="B27:M27"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="S40:U40"/>
-    <mergeCell ref="P41:R41"/>
-    <mergeCell ref="S41:U41"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="H34:N34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="A36:N36"/>
-    <mergeCell ref="A37:N37"/>
-    <mergeCell ref="P40:R40"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="I4:I6"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0" footer="0"/>
@@ -3031,48 +3035,48 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:28" s="26" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="83"/>
+      <c r="N3" s="83"/>
+      <c r="O3" s="83"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="83"/>
+      <c r="R3" s="83"/>
+      <c r="S3" s="83"/>
       <c r="T3" s="28"/>
-      <c r="U3" s="53" t="s">
+      <c r="U3" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="V3" s="53"/>
-      <c r="W3" s="53"/>
-      <c r="X3" s="53"/>
-      <c r="Y3" s="53"/>
-      <c r="Z3" s="53"/>
-      <c r="AA3" s="53"/>
-      <c r="AB3" s="53"/>
+      <c r="V3" s="83"/>
+      <c r="W3" s="83"/>
+      <c r="X3" s="83"/>
+      <c r="Y3" s="83"/>
+      <c r="Z3" s="83"/>
+      <c r="AA3" s="83"/>
+      <c r="AB3" s="83"/>
     </row>
     <row r="4" spans="1:28" ht="18" x14ac:dyDescent="0.4">
       <c r="S4" s="26"/>
     </row>
     <row r="5" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="154" t="s">
+      <c r="A5" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="154"/>
-      <c r="C5" s="154"/>
+      <c r="B5" s="104"/>
+      <c r="C5" s="104"/>
       <c r="D5" s="44"/>
       <c r="E5" s="44"/>
       <c r="F5" s="44"/>
@@ -3083,37 +3087,37 @@
       <c r="K5" s="44"/>
       <c r="L5" s="44"/>
       <c r="M5" s="44"/>
-      <c r="N5" s="155" t="s">
+      <c r="N5" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="O5" s="155"/>
-      <c r="P5" s="155"/>
-      <c r="Q5" s="156"/>
-      <c r="R5" s="157" t="s">
+      <c r="O5" s="105"/>
+      <c r="P5" s="105"/>
+      <c r="Q5" s="106"/>
+      <c r="R5" s="107" t="s">
         <v>46</v>
       </c>
-      <c r="S5" s="159" t="s">
+      <c r="S5" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="U5" s="161" t="s">
+      <c r="U5" s="111" t="s">
         <v>47</v>
       </c>
-      <c r="V5" s="155" t="s">
+      <c r="V5" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="W5" s="155"/>
-      <c r="X5" s="155"/>
-      <c r="Y5" s="155" t="s">
+      <c r="W5" s="105"/>
+      <c r="X5" s="105"/>
+      <c r="Y5" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="Z5" s="155"/>
-      <c r="AA5" s="155"/>
-      <c r="AB5" s="155"/>
+      <c r="Z5" s="105"/>
+      <c r="AA5" s="105"/>
+      <c r="AB5" s="105"/>
     </row>
     <row r="6" spans="1:28" ht="21" x14ac:dyDescent="0.45">
-      <c r="A6" s="154"/>
-      <c r="B6" s="154"/>
-      <c r="C6" s="154"/>
+      <c r="A6" s="104"/>
+      <c r="B6" s="104"/>
+      <c r="C6" s="104"/>
       <c r="D6" s="44"/>
       <c r="E6" s="44" t="s">
         <v>114</v>
@@ -3154,12 +3158,12 @@
       <c r="Q6" s="32">
         <v>4</v>
       </c>
-      <c r="R6" s="158"/>
-      <c r="S6" s="160"/>
-      <c r="U6" s="161"/>
-      <c r="V6" s="155"/>
-      <c r="W6" s="155"/>
-      <c r="X6" s="155"/>
+      <c r="R6" s="108"/>
+      <c r="S6" s="110"/>
+      <c r="U6" s="111"/>
+      <c r="V6" s="105"/>
+      <c r="W6" s="105"/>
+      <c r="X6" s="105"/>
       <c r="Y6" s="34">
         <v>1</v>
       </c>
@@ -3174,11 +3178,11 @@
       </c>
     </row>
     <row r="7" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="142" t="s">
+      <c r="A7" s="88" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="142"/>
-      <c r="C7" s="142"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
       <c r="D7" s="43" t="e">
         <f>IF(#REF!="GRADE-7","FILIPINO7",IF(#REF!="GRADE-8","FILIPINO8",IF(#REF!="GRADE-9","FILIPINO9",IF(#REF!="GRADE-10","FILIPINO10",""))))</f>
         <v>#REF!</v>
@@ -3226,25 +3230,25 @@
       <c r="R7" s="38"/>
       <c r="S7" s="38"/>
       <c r="T7" s="33"/>
-      <c r="U7" s="100" t="s">
+      <c r="U7" s="89" t="s">
         <v>113</v>
       </c>
-      <c r="V7" s="145" t="s">
+      <c r="V7" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="W7" s="146"/>
-      <c r="X7" s="147"/>
-      <c r="Y7" s="119"/>
-      <c r="Z7" s="119"/>
-      <c r="AA7" s="119"/>
-      <c r="AB7" s="119"/>
+      <c r="W7" s="93"/>
+      <c r="X7" s="94"/>
+      <c r="Y7" s="101"/>
+      <c r="Z7" s="101"/>
+      <c r="AA7" s="101"/>
+      <c r="AB7" s="101"/>
     </row>
     <row r="8" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="162" t="s">
+      <c r="A8" s="113" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="162"/>
-      <c r="C8" s="162"/>
+      <c r="B8" s="113"/>
+      <c r="C8" s="113"/>
       <c r="D8" s="43" t="e">
         <f>IF(#REF!="GRADE-7","ENGLISH7",IF(#REF!="GRADE-8","ENGLISH8",IF(#REF!="GRADE-9","ENGLISH9",IF(#REF!="GRADE-10","ENGLISH10",""))))</f>
         <v>#REF!</v>
@@ -3292,115 +3296,115 @@
       <c r="R8" s="38"/>
       <c r="S8" s="38"/>
       <c r="T8" s="33"/>
-      <c r="U8" s="143"/>
-      <c r="V8" s="148"/>
-      <c r="W8" s="149"/>
-      <c r="X8" s="150"/>
-      <c r="Y8" s="120"/>
-      <c r="Z8" s="120"/>
-      <c r="AA8" s="120"/>
-      <c r="AB8" s="120"/>
+      <c r="U8" s="90"/>
+      <c r="V8" s="95"/>
+      <c r="W8" s="96"/>
+      <c r="X8" s="97"/>
+      <c r="Y8" s="102"/>
+      <c r="Z8" s="102"/>
+      <c r="AA8" s="102"/>
+      <c r="AB8" s="102"/>
     </row>
     <row r="9" spans="1:28" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="136" t="s">
+      <c r="A9" s="120" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="137"/>
-      <c r="C9" s="138"/>
-      <c r="D9" s="163" t="e">
+      <c r="B9" s="121"/>
+      <c r="C9" s="122"/>
+      <c r="D9" s="114" t="e">
         <f>IF(#REF!="GRADE-7","MATHEMATICS7",IF(#REF!="GRADE-8","MATHEMATICS8",IF(#REF!="GRADE-9","MATHEMATICS9",IF(#REF!="GRADE-10","MATHEMATICS10",""))))</f>
         <v>#REF!</v>
       </c>
-      <c r="E9" s="94" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F9" s="94" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G9" s="94" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H9" s="94" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I9" s="94" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J9" s="94" t="e">
+      <c r="E9" s="118" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F9" s="118" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G9" s="118" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H9" s="118" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I9" s="118" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J9" s="118" t="e">
         <f>IF(#REF!="GRADE-7","7",IF(#REF!="GRADE-8","8",IF(#REF!="GRADE-9","9",IF(#REF!="GRADE-10","10",""))))</f>
         <v>#REF!</v>
       </c>
-      <c r="K9" s="94" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L9" s="94" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M9" s="94" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N9" s="122"/>
-      <c r="O9" s="122"/>
-      <c r="P9" s="122"/>
-      <c r="Q9" s="122"/>
-      <c r="R9" s="122"/>
-      <c r="S9" s="122"/>
+      <c r="K9" s="118" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L9" s="118" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M9" s="118" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N9" s="126"/>
+      <c r="O9" s="126"/>
+      <c r="P9" s="126"/>
+      <c r="Q9" s="126"/>
+      <c r="R9" s="126"/>
+      <c r="S9" s="126"/>
       <c r="T9" s="33"/>
-      <c r="U9" s="143"/>
-      <c r="V9" s="151"/>
-      <c r="W9" s="152"/>
-      <c r="X9" s="153"/>
-      <c r="Y9" s="121"/>
-      <c r="Z9" s="121"/>
-      <c r="AA9" s="121"/>
-      <c r="AB9" s="121"/>
+      <c r="U9" s="90"/>
+      <c r="V9" s="98"/>
+      <c r="W9" s="99"/>
+      <c r="X9" s="100"/>
+      <c r="Y9" s="103"/>
+      <c r="Z9" s="103"/>
+      <c r="AA9" s="103"/>
+      <c r="AB9" s="103"/>
     </row>
     <row r="10" spans="1:28" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="139"/>
-      <c r="B10" s="140"/>
-      <c r="C10" s="141"/>
-      <c r="D10" s="164"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="95"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="95"/>
-      <c r="J10" s="95"/>
-      <c r="K10" s="95"/>
-      <c r="L10" s="95"/>
-      <c r="M10" s="95"/>
-      <c r="N10" s="123"/>
-      <c r="O10" s="123"/>
-      <c r="P10" s="123"/>
-      <c r="Q10" s="123"/>
-      <c r="R10" s="123"/>
-      <c r="S10" s="123"/>
+      <c r="A10" s="123"/>
+      <c r="B10" s="124"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="115"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="119"/>
+      <c r="K10" s="119"/>
+      <c r="L10" s="119"/>
+      <c r="M10" s="119"/>
+      <c r="N10" s="127"/>
+      <c r="O10" s="127"/>
+      <c r="P10" s="127"/>
+      <c r="Q10" s="127"/>
+      <c r="R10" s="127"/>
+      <c r="S10" s="127"/>
       <c r="T10" s="33"/>
-      <c r="U10" s="143"/>
-      <c r="V10" s="103" t="s">
+      <c r="U10" s="90"/>
+      <c r="V10" s="128" t="s">
         <v>53</v>
       </c>
-      <c r="W10" s="104"/>
-      <c r="X10" s="105"/>
-      <c r="Y10" s="99"/>
-      <c r="Z10" s="99"/>
-      <c r="AA10" s="99"/>
-      <c r="AB10" s="99"/>
+      <c r="W10" s="129"/>
+      <c r="X10" s="130"/>
+      <c r="Y10" s="112"/>
+      <c r="Z10" s="112"/>
+      <c r="AA10" s="112"/>
+      <c r="AB10" s="112"/>
     </row>
     <row r="11" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="162" t="s">
+      <c r="A11" s="113" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="162"/>
-      <c r="C11" s="162"/>
+      <c r="B11" s="113"/>
+      <c r="C11" s="113"/>
       <c r="D11" s="43" t="e">
         <f>IF(#REF!="GRADE-7","SCIENCE7",IF(#REF!="GRADE-8","SCIENCE8",IF(#REF!="GRADE-9","SCIENCE9",IF(#REF!="GRADE-10","SCIENCE10",""))))</f>
         <v>#REF!</v>
@@ -3448,21 +3452,21 @@
       <c r="R11" s="38"/>
       <c r="S11" s="38"/>
       <c r="T11" s="33"/>
-      <c r="U11" s="143"/>
-      <c r="V11" s="124"/>
-      <c r="W11" s="125"/>
-      <c r="X11" s="126"/>
-      <c r="Y11" s="99"/>
-      <c r="Z11" s="99"/>
-      <c r="AA11" s="99"/>
-      <c r="AB11" s="99"/>
+      <c r="U11" s="90"/>
+      <c r="V11" s="131"/>
+      <c r="W11" s="132"/>
+      <c r="X11" s="133"/>
+      <c r="Y11" s="112"/>
+      <c r="Z11" s="112"/>
+      <c r="AA11" s="112"/>
+      <c r="AB11" s="112"/>
     </row>
     <row r="12" spans="1:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="162" t="s">
+      <c r="A12" s="113" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="162"/>
-      <c r="C12" s="162"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="113"/>
       <c r="D12" s="43" t="e">
         <f>IF(#REF!="GRADE-7","AP7",IF(#REF!="GRADE-8","AP8",IF(#REF!="GRADE-9","AP9",IF(#REF!="GRADE-10","AP10",""))))</f>
         <v>#REF!</v>
@@ -3510,207 +3514,207 @@
       <c r="R12" s="38"/>
       <c r="S12" s="38"/>
       <c r="T12" s="33"/>
-      <c r="U12" s="144"/>
-      <c r="V12" s="106"/>
-      <c r="W12" s="107"/>
-      <c r="X12" s="108"/>
-      <c r="Y12" s="99"/>
-      <c r="Z12" s="99"/>
-      <c r="AA12" s="99"/>
-      <c r="AB12" s="99"/>
+      <c r="U12" s="91"/>
+      <c r="V12" s="134"/>
+      <c r="W12" s="135"/>
+      <c r="X12" s="136"/>
+      <c r="Y12" s="112"/>
+      <c r="Z12" s="112"/>
+      <c r="AA12" s="112"/>
+      <c r="AB12" s="112"/>
     </row>
     <row r="13" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="132" t="s">
+      <c r="A13" s="146" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="132"/>
-      <c r="C13" s="127"/>
-      <c r="D13" s="134" t="e">
+      <c r="B13" s="146"/>
+      <c r="C13" s="137"/>
+      <c r="D13" s="116" t="e">
         <f>IF(#REF!="GRADE-7","ESP7",IF(#REF!="GRADE-8","ESP8",IF(#REF!="GRADE-9","ESP9",IF(#REF!="GRADE-10","ESP10",""))))</f>
         <v>#REF!</v>
       </c>
-      <c r="E13" s="96" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F13" s="96" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G13" s="96" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H13" s="96" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I13" s="96" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J13" s="96" t="e">
+      <c r="E13" s="142" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F13" s="142" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G13" s="142" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H13" s="142" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I13" s="142" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J13" s="142" t="e">
         <f>IF(#REF!="GRADE-7","7",IF(#REF!="GRADE-8","8",IF(#REF!="GRADE-9","9",IF(#REF!="GRADE-10","10",""))))</f>
         <v>#REF!</v>
       </c>
-      <c r="K13" s="96" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L13" s="96" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M13" s="96" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N13" s="98"/>
-      <c r="O13" s="98"/>
-      <c r="P13" s="98"/>
-      <c r="Q13" s="98"/>
-      <c r="R13" s="98"/>
-      <c r="S13" s="122"/>
-      <c r="U13" s="100" t="s">
+      <c r="K13" s="142" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L13" s="142" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M13" s="142" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N13" s="147"/>
+      <c r="O13" s="147"/>
+      <c r="P13" s="147"/>
+      <c r="Q13" s="147"/>
+      <c r="R13" s="147"/>
+      <c r="S13" s="126"/>
+      <c r="U13" s="89" t="s">
         <v>57</v>
       </c>
-      <c r="V13" s="110" t="s">
+      <c r="V13" s="152" t="s">
         <v>58</v>
       </c>
-      <c r="W13" s="111"/>
-      <c r="X13" s="112"/>
-      <c r="Y13" s="119"/>
-      <c r="Z13" s="119"/>
-      <c r="AA13" s="119"/>
-      <c r="AB13" s="119"/>
+      <c r="W13" s="153"/>
+      <c r="X13" s="154"/>
+      <c r="Y13" s="101"/>
+      <c r="Z13" s="101"/>
+      <c r="AA13" s="101"/>
+      <c r="AB13" s="101"/>
     </row>
     <row r="14" spans="1:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="132"/>
-      <c r="B14" s="132"/>
-      <c r="C14" s="127"/>
-      <c r="D14" s="135"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="97"/>
-      <c r="H14" s="97"/>
-      <c r="I14" s="97"/>
-      <c r="J14" s="97"/>
-      <c r="K14" s="97"/>
-      <c r="L14" s="97"/>
-      <c r="M14" s="97"/>
-      <c r="N14" s="98"/>
-      <c r="O14" s="98"/>
-      <c r="P14" s="98"/>
-      <c r="Q14" s="98"/>
-      <c r="R14" s="98"/>
-      <c r="S14" s="123"/>
-      <c r="U14" s="101"/>
-      <c r="V14" s="113"/>
-      <c r="W14" s="114"/>
-      <c r="X14" s="115"/>
-      <c r="Y14" s="120"/>
-      <c r="Z14" s="120"/>
-      <c r="AA14" s="120"/>
-      <c r="AB14" s="120"/>
+      <c r="A14" s="146"/>
+      <c r="B14" s="146"/>
+      <c r="C14" s="137"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="143"/>
+      <c r="F14" s="143"/>
+      <c r="G14" s="143"/>
+      <c r="H14" s="143"/>
+      <c r="I14" s="143"/>
+      <c r="J14" s="143"/>
+      <c r="K14" s="143"/>
+      <c r="L14" s="143"/>
+      <c r="M14" s="143"/>
+      <c r="N14" s="147"/>
+      <c r="O14" s="147"/>
+      <c r="P14" s="147"/>
+      <c r="Q14" s="147"/>
+      <c r="R14" s="147"/>
+      <c r="S14" s="127"/>
+      <c r="U14" s="149"/>
+      <c r="V14" s="155"/>
+      <c r="W14" s="156"/>
+      <c r="X14" s="157"/>
+      <c r="Y14" s="102"/>
+      <c r="Z14" s="102"/>
+      <c r="AA14" s="102"/>
+      <c r="AB14" s="102"/>
     </row>
     <row r="15" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="133" t="s">
+      <c r="A15" s="148" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="133"/>
-      <c r="C15" s="133"/>
-      <c r="D15" s="130" t="e">
+      <c r="B15" s="148"/>
+      <c r="C15" s="148"/>
+      <c r="D15" s="140" t="e">
         <f>IF(#REF!="GRADE-7","TLE7",IF(#REF!="GRADE-8","TLE8",IF(#REF!="GRADE-9","TLE9",IF(#REF!="GRADE-10","TLE10",""))))</f>
         <v>#REF!</v>
       </c>
-      <c r="E15" s="87" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F15" s="87" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G15" s="87" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H15" s="87" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I15" s="87" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J15" s="87" t="e">
+      <c r="E15" s="144" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F15" s="144" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G15" s="144" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H15" s="144" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I15" s="144" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J15" s="144" t="e">
         <f>IF(#REF!="GRADE-7","7",IF(#REF!="GRADE-8","8",IF(#REF!="GRADE-9","9",IF(#REF!="GRADE-10","10",""))))</f>
         <v>#REF!</v>
       </c>
-      <c r="K15" s="87" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L15" s="87" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M15" s="87" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N15" s="98"/>
-      <c r="O15" s="98"/>
-      <c r="P15" s="98"/>
-      <c r="Q15" s="98"/>
-      <c r="R15" s="98"/>
-      <c r="S15" s="122"/>
-      <c r="U15" s="101"/>
-      <c r="V15" s="116"/>
-      <c r="W15" s="117"/>
-      <c r="X15" s="118"/>
-      <c r="Y15" s="121"/>
-      <c r="Z15" s="121"/>
-      <c r="AA15" s="121"/>
-      <c r="AB15" s="121"/>
+      <c r="K15" s="144" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L15" s="144" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M15" s="144" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N15" s="147"/>
+      <c r="O15" s="147"/>
+      <c r="P15" s="147"/>
+      <c r="Q15" s="147"/>
+      <c r="R15" s="147"/>
+      <c r="S15" s="126"/>
+      <c r="U15" s="149"/>
+      <c r="V15" s="158"/>
+      <c r="W15" s="159"/>
+      <c r="X15" s="160"/>
+      <c r="Y15" s="103"/>
+      <c r="Z15" s="103"/>
+      <c r="AA15" s="103"/>
+      <c r="AB15" s="103"/>
     </row>
     <row r="16" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="133"/>
-      <c r="B16" s="133"/>
-      <c r="C16" s="133"/>
-      <c r="D16" s="131"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="88"/>
-      <c r="I16" s="88"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="88"/>
-      <c r="L16" s="88"/>
-      <c r="M16" s="88"/>
-      <c r="N16" s="98"/>
-      <c r="O16" s="98"/>
-      <c r="P16" s="98"/>
-      <c r="Q16" s="98"/>
-      <c r="R16" s="98"/>
-      <c r="S16" s="123"/>
-      <c r="U16" s="101"/>
-      <c r="V16" s="103" t="s">
+      <c r="A16" s="148"/>
+      <c r="B16" s="148"/>
+      <c r="C16" s="148"/>
+      <c r="D16" s="141"/>
+      <c r="E16" s="145"/>
+      <c r="F16" s="145"/>
+      <c r="G16" s="145"/>
+      <c r="H16" s="145"/>
+      <c r="I16" s="145"/>
+      <c r="J16" s="145"/>
+      <c r="K16" s="145"/>
+      <c r="L16" s="145"/>
+      <c r="M16" s="145"/>
+      <c r="N16" s="147"/>
+      <c r="O16" s="147"/>
+      <c r="P16" s="147"/>
+      <c r="Q16" s="147"/>
+      <c r="R16" s="147"/>
+      <c r="S16" s="127"/>
+      <c r="U16" s="149"/>
+      <c r="V16" s="128" t="s">
         <v>60</v>
       </c>
-      <c r="W16" s="104"/>
-      <c r="X16" s="105"/>
-      <c r="Y16" s="99"/>
-      <c r="Z16" s="99"/>
-      <c r="AA16" s="99"/>
-      <c r="AB16" s="99"/>
+      <c r="W16" s="129"/>
+      <c r="X16" s="130"/>
+      <c r="Y16" s="112"/>
+      <c r="Z16" s="112"/>
+      <c r="AA16" s="112"/>
+      <c r="AB16" s="112"/>
     </row>
     <row r="17" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="127" t="s">
+      <c r="A17" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="128"/>
-      <c r="C17" s="129"/>
+      <c r="B17" s="138"/>
+      <c r="C17" s="139"/>
       <c r="D17" s="42" t="e">
         <f>IF(#REF!="GRADE-7","MAPEH7",IF(#REF!="GRADE-8","MAPEH8",IF(#REF!="GRADE-9","MAPEH9",IF(#REF!="GRADE-10","MAPEH10",""))))</f>
         <v>#REF!</v>
@@ -3757,21 +3761,21 @@
       <c r="Q17" s="38"/>
       <c r="R17" s="38"/>
       <c r="S17" s="38"/>
-      <c r="U17" s="102"/>
-      <c r="V17" s="106"/>
-      <c r="W17" s="107"/>
-      <c r="X17" s="108"/>
-      <c r="Y17" s="99"/>
-      <c r="Z17" s="99"/>
-      <c r="AA17" s="99"/>
-      <c r="AB17" s="99"/>
+      <c r="U17" s="150"/>
+      <c r="V17" s="134"/>
+      <c r="W17" s="135"/>
+      <c r="X17" s="136"/>
+      <c r="Y17" s="112"/>
+      <c r="Z17" s="112"/>
+      <c r="AA17" s="112"/>
+      <c r="AB17" s="112"/>
     </row>
     <row r="18" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="39"/>
-      <c r="B18" s="89" t="s">
+      <c r="B18" s="161" t="s">
         <v>109</v>
       </c>
-      <c r="C18" s="90"/>
+      <c r="C18" s="162"/>
       <c r="D18" s="41" t="e">
         <f>IF(#REF!="GRADE-7","MUSIC7",IF(#REF!="GRADE-8","MUSIC8",IF(#REF!="GRADE-9","MUSIC9",IF(#REF!="GRADE-10","MUSIC10",""))))</f>
         <v>#REF!</v>
@@ -3818,25 +3822,25 @@
       <c r="Q18" s="38"/>
       <c r="R18" s="51"/>
       <c r="S18" s="51"/>
-      <c r="U18" s="100" t="s">
+      <c r="U18" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="V18" s="103" t="s">
+      <c r="V18" s="128" t="s">
         <v>62</v>
       </c>
-      <c r="W18" s="104"/>
-      <c r="X18" s="105"/>
-      <c r="Y18" s="99"/>
-      <c r="Z18" s="99"/>
-      <c r="AA18" s="99"/>
-      <c r="AB18" s="99"/>
+      <c r="W18" s="129"/>
+      <c r="X18" s="130"/>
+      <c r="Y18" s="112"/>
+      <c r="Z18" s="112"/>
+      <c r="AA18" s="112"/>
+      <c r="AB18" s="112"/>
     </row>
     <row r="19" spans="1:28" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="39"/>
-      <c r="B19" s="89" t="s">
+      <c r="B19" s="161" t="s">
         <v>110</v>
       </c>
-      <c r="C19" s="90"/>
+      <c r="C19" s="162"/>
       <c r="D19" s="41" t="e">
         <f>IF(#REF!="GRADE-7","ARTS7",IF(#REF!="GRADE-8","ARTS8",IF(#REF!="GRADE-9","ARTS9",IF(#REF!="GRADE-10","ARTS10",""))))</f>
         <v>#REF!</v>
@@ -3883,21 +3887,21 @@
       <c r="Q19" s="38"/>
       <c r="R19" s="51"/>
       <c r="S19" s="51"/>
-      <c r="U19" s="102"/>
-      <c r="V19" s="106"/>
-      <c r="W19" s="107"/>
-      <c r="X19" s="108"/>
-      <c r="Y19" s="99"/>
-      <c r="Z19" s="99"/>
-      <c r="AA19" s="99"/>
-      <c r="AB19" s="99"/>
+      <c r="U19" s="150"/>
+      <c r="V19" s="134"/>
+      <c r="W19" s="135"/>
+      <c r="X19" s="136"/>
+      <c r="Y19" s="112"/>
+      <c r="Z19" s="112"/>
+      <c r="AA19" s="112"/>
+      <c r="AB19" s="112"/>
     </row>
     <row r="20" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="40"/>
-      <c r="B20" s="91" t="s">
+      <c r="B20" s="163" t="s">
         <v>111</v>
       </c>
-      <c r="C20" s="92"/>
+      <c r="C20" s="164"/>
       <c r="D20" s="45" t="e">
         <f>IF(#REF!="GRADE-7","PE7",IF(#REF!="GRADE-8","PE8",IF(#REF!="GRADE-9","PE9",IF(#REF!="GRADE-10","PE10",""))))</f>
         <v>#REF!</v>
@@ -3944,25 +3948,25 @@
       <c r="Q20" s="38"/>
       <c r="R20" s="51"/>
       <c r="S20" s="51"/>
-      <c r="U20" s="100" t="s">
+      <c r="U20" s="89" t="s">
         <v>63</v>
       </c>
-      <c r="V20" s="103" t="s">
+      <c r="V20" s="128" t="s">
         <v>64</v>
       </c>
-      <c r="W20" s="104"/>
-      <c r="X20" s="105"/>
-      <c r="Y20" s="99"/>
-      <c r="Z20" s="99"/>
-      <c r="AA20" s="99"/>
-      <c r="AB20" s="99"/>
+      <c r="W20" s="129"/>
+      <c r="X20" s="130"/>
+      <c r="Y20" s="112"/>
+      <c r="Z20" s="112"/>
+      <c r="AA20" s="112"/>
+      <c r="AB20" s="112"/>
     </row>
     <row r="21" spans="1:28" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="40"/>
-      <c r="B21" s="89" t="s">
+      <c r="B21" s="161" t="s">
         <v>112</v>
       </c>
-      <c r="C21" s="90"/>
+      <c r="C21" s="162"/>
       <c r="D21" s="41" t="e">
         <f>IF(#REF!="GRADE-7","HEALTH7",IF(#REF!="GRADE-8","HEALTH8",IF(#REF!="GRADE-9","HEALTH9",IF(#REF!="GRADE-10","HEALTH10",""))))</f>
         <v>#REF!</v>
@@ -4009,47 +4013,47 @@
       <c r="Q21" s="38"/>
       <c r="R21" s="51"/>
       <c r="S21" s="51"/>
-      <c r="U21" s="101"/>
-      <c r="V21" s="106"/>
-      <c r="W21" s="107"/>
-      <c r="X21" s="108"/>
-      <c r="Y21" s="99"/>
-      <c r="Z21" s="99"/>
-      <c r="AA21" s="99"/>
-      <c r="AB21" s="99"/>
+      <c r="U21" s="149"/>
+      <c r="V21" s="134"/>
+      <c r="W21" s="135"/>
+      <c r="X21" s="136"/>
+      <c r="Y21" s="112"/>
+      <c r="Z21" s="112"/>
+      <c r="AA21" s="112"/>
+      <c r="AB21" s="112"/>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.4">
       <c r="D22" s="1" t="e">
         <f>IF(#REF!="GRADE-7","GEN7",IF(#REF!="GRADE-8","GEN8",IF(#REF!="GRADE-9","GEN9",IF(#REF!="GRADE-10","GEN10",""))))</f>
         <v>#REF!</v>
       </c>
-      <c r="N22" s="93" t="s">
+      <c r="N22" s="165" t="s">
         <v>65</v>
       </c>
-      <c r="O22" s="93"/>
-      <c r="P22" s="93"/>
-      <c r="Q22" s="93"/>
+      <c r="O22" s="165"/>
+      <c r="P22" s="165"/>
+      <c r="Q22" s="165"/>
       <c r="R22" s="48"/>
-      <c r="U22" s="101"/>
-      <c r="V22" s="103" t="s">
+      <c r="U22" s="149"/>
+      <c r="V22" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="W22" s="104"/>
-      <c r="X22" s="105"/>
-      <c r="Y22" s="109"/>
-      <c r="Z22" s="109"/>
-      <c r="AA22" s="109"/>
-      <c r="AB22" s="109"/>
+      <c r="W22" s="129"/>
+      <c r="X22" s="130"/>
+      <c r="Y22" s="151"/>
+      <c r="Z22" s="151"/>
+      <c r="AA22" s="151"/>
+      <c r="AB22" s="151"/>
     </row>
     <row r="23" spans="1:28" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="U23" s="102"/>
-      <c r="V23" s="106"/>
-      <c r="W23" s="107"/>
-      <c r="X23" s="108"/>
-      <c r="Y23" s="109"/>
-      <c r="Z23" s="109"/>
-      <c r="AA23" s="109"/>
-      <c r="AB23" s="109"/>
+      <c r="U23" s="150"/>
+      <c r="V23" s="134"/>
+      <c r="W23" s="135"/>
+      <c r="X23" s="136"/>
+      <c r="Y23" s="151"/>
+      <c r="Z23" s="151"/>
+      <c r="AA23" s="151"/>
+      <c r="AB23" s="151"/>
     </row>
     <row r="24" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="17" t="s">
@@ -4067,16 +4071,16 @@
       <c r="K24" s="26"/>
       <c r="L24" s="26"/>
       <c r="M24" s="26"/>
-      <c r="N24" s="53" t="s">
+      <c r="N24" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="O24" s="53"/>
-      <c r="P24" s="53"/>
-      <c r="Q24" s="53"/>
-      <c r="R24" s="53" t="s">
+      <c r="O24" s="83"/>
+      <c r="P24" s="83"/>
+      <c r="Q24" s="83"/>
+      <c r="R24" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="S24" s="53"/>
+      <c r="S24" s="83"/>
       <c r="T24" s="26"/>
       <c r="U24" s="26"/>
       <c r="V24" s="26"/>
@@ -4102,16 +4106,16 @@
       <c r="K25" s="26"/>
       <c r="L25" s="26"/>
       <c r="M25" s="26"/>
-      <c r="N25" s="68" t="s">
+      <c r="N25" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="O25" s="68"/>
-      <c r="P25" s="68"/>
-      <c r="Q25" s="68"/>
-      <c r="R25" s="68" t="s">
+      <c r="O25" s="61"/>
+      <c r="P25" s="61"/>
+      <c r="Q25" s="61"/>
+      <c r="R25" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="S25" s="68"/>
+      <c r="S25" s="61"/>
       <c r="T25" s="26"/>
       <c r="U25" s="26"/>
       <c r="V25" s="17" t="s">
@@ -4141,16 +4145,16 @@
       <c r="K26" s="26"/>
       <c r="L26" s="26"/>
       <c r="M26" s="26"/>
-      <c r="N26" s="68" t="s">
+      <c r="N26" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="O26" s="68"/>
-      <c r="P26" s="68"/>
-      <c r="Q26" s="68"/>
-      <c r="R26" s="68" t="s">
+      <c r="O26" s="61"/>
+      <c r="P26" s="61"/>
+      <c r="Q26" s="61"/>
+      <c r="R26" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="S26" s="68"/>
+      <c r="S26" s="61"/>
       <c r="T26" s="26"/>
       <c r="U26" s="26"/>
       <c r="V26" s="31" t="s">
@@ -4180,16 +4184,16 @@
       <c r="K27" s="26"/>
       <c r="L27" s="26"/>
       <c r="M27" s="26"/>
-      <c r="N27" s="68" t="s">
+      <c r="N27" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="O27" s="68"/>
-      <c r="P27" s="68"/>
-      <c r="Q27" s="68"/>
-      <c r="R27" s="68" t="s">
+      <c r="O27" s="61"/>
+      <c r="P27" s="61"/>
+      <c r="Q27" s="61"/>
+      <c r="R27" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="S27" s="68"/>
+      <c r="S27" s="61"/>
       <c r="T27" s="26"/>
       <c r="U27" s="26"/>
       <c r="V27" s="31" t="s">
@@ -4219,16 +4223,16 @@
       <c r="K28" s="26"/>
       <c r="L28" s="26"/>
       <c r="M28" s="26"/>
-      <c r="N28" s="68" t="s">
+      <c r="N28" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="O28" s="68"/>
-      <c r="P28" s="68"/>
-      <c r="Q28" s="68"/>
-      <c r="R28" s="68" t="s">
+      <c r="O28" s="61"/>
+      <c r="P28" s="61"/>
+      <c r="Q28" s="61"/>
+      <c r="R28" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="S28" s="68"/>
+      <c r="S28" s="61"/>
       <c r="T28" s="26"/>
       <c r="U28" s="26"/>
       <c r="V28" s="31" t="s">
@@ -4258,16 +4262,16 @@
       <c r="K29" s="26"/>
       <c r="L29" s="26"/>
       <c r="M29" s="26"/>
-      <c r="N29" s="68" t="s">
+      <c r="N29" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="O29" s="68"/>
-      <c r="P29" s="68"/>
-      <c r="Q29" s="68"/>
-      <c r="R29" s="68" t="s">
+      <c r="O29" s="61"/>
+      <c r="P29" s="61"/>
+      <c r="Q29" s="61"/>
+      <c r="R29" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="S29" s="68"/>
+      <c r="S29" s="61"/>
       <c r="T29" s="26"/>
       <c r="U29" s="26"/>
       <c r="V29" s="31" t="s">
@@ -4283,6 +4287,103 @@
     </row>
   </sheetData>
   <mergeCells count="121">
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="N27:Q27"/>
+    <mergeCell ref="N24:Q24"/>
+    <mergeCell ref="N22:Q22"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="N28:Q28"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="N29:Q29"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="N25:Q25"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="N26:Q26"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="Z18:Z19"/>
+    <mergeCell ref="AA16:AA17"/>
+    <mergeCell ref="AA18:AA19"/>
+    <mergeCell ref="AB18:AB19"/>
+    <mergeCell ref="U20:U23"/>
+    <mergeCell ref="V20:X21"/>
+    <mergeCell ref="Y20:Y21"/>
+    <mergeCell ref="Z20:Z21"/>
+    <mergeCell ref="AA20:AA21"/>
+    <mergeCell ref="AB20:AB21"/>
+    <mergeCell ref="V22:X23"/>
+    <mergeCell ref="Y22:Y23"/>
+    <mergeCell ref="Z22:Z23"/>
+    <mergeCell ref="AA22:AA23"/>
+    <mergeCell ref="AB22:AB23"/>
+    <mergeCell ref="AB16:AB17"/>
+    <mergeCell ref="U13:U17"/>
+    <mergeCell ref="V13:X15"/>
+    <mergeCell ref="Y13:Y15"/>
+    <mergeCell ref="U18:U19"/>
+    <mergeCell ref="V18:X19"/>
+    <mergeCell ref="Y18:Y19"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="V10:X12"/>
+    <mergeCell ref="Z13:Z15"/>
+    <mergeCell ref="AA13:AA15"/>
+    <mergeCell ref="AB13:AB15"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="V16:X17"/>
+    <mergeCell ref="Y16:Y17"/>
+    <mergeCell ref="Z16:Z17"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="A13:C14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="A15:C16"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A9:C10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="U7:U12"/>
     <mergeCell ref="V7:X9"/>
@@ -4307,103 +4408,6 @@
     <mergeCell ref="Y10:Y12"/>
     <mergeCell ref="Z10:Z12"/>
     <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A9:C10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="V10:X12"/>
-    <mergeCell ref="Z13:Z15"/>
-    <mergeCell ref="AA13:AA15"/>
-    <mergeCell ref="AB13:AB15"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="V16:X17"/>
-    <mergeCell ref="Y16:Y17"/>
-    <mergeCell ref="Z16:Z17"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="A13:C14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="A15:C16"/>
-    <mergeCell ref="Z18:Z19"/>
-    <mergeCell ref="AA16:AA17"/>
-    <mergeCell ref="AA18:AA19"/>
-    <mergeCell ref="AB18:AB19"/>
-    <mergeCell ref="U20:U23"/>
-    <mergeCell ref="V20:X21"/>
-    <mergeCell ref="Y20:Y21"/>
-    <mergeCell ref="Z20:Z21"/>
-    <mergeCell ref="AA20:AA21"/>
-    <mergeCell ref="AB20:AB21"/>
-    <mergeCell ref="V22:X23"/>
-    <mergeCell ref="Y22:Y23"/>
-    <mergeCell ref="Z22:Z23"/>
-    <mergeCell ref="AA22:AA23"/>
-    <mergeCell ref="AB22:AB23"/>
-    <mergeCell ref="AB16:AB17"/>
-    <mergeCell ref="U13:U17"/>
-    <mergeCell ref="V13:X15"/>
-    <mergeCell ref="Y13:Y15"/>
-    <mergeCell ref="U18:U19"/>
-    <mergeCell ref="V18:X19"/>
-    <mergeCell ref="Y18:Y19"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="N28:Q28"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="N29:Q29"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="N25:Q25"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="N26:Q26"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="N27:Q27"/>
-    <mergeCell ref="N24:Q24"/>
-    <mergeCell ref="N22:Q22"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="M13:M14"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0" footer="0"/>
